--- a/aiurt-module-system/src/main/resources/templates/csStationPositionError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/csStationPositionError.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14719\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\txyw1\aiurt-module-system\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B44022D-7C92-4C44-A14D-D4039396F06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B7CDCF-45BC-41BC-BDCF-D5E5C009DE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="285" windowWidth="28800" windowHeight="14415" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="14415" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
   </bookViews>
   <sheets>
     <sheet name="位置导入错误模板" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <t>位置名称</t>
   </si>
   <si>
-    <t>位置编号</t>
-  </si>
-  <si>
     <t>经度</t>
   </si>
   <si>
@@ -161,6 +158,10 @@
   </si>
   <si>
     <t>位置导入错误模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,29 +285,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,7 +629,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -644,87 +645,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" ht="192" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:19" ht="192" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="F3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -803,55 +804,55 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/aiurt-module-system/src/main/resources/templates/csStationPositionError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/csStationPositionError.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\txyw1\aiurt-module-system\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B7CDCF-45BC-41BC-BDCF-D5E5C009DE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C471700-6584-4557-90BC-F59358D3D5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="14415" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
+    <workbookView xWindow="-90" yWindow="570" windowWidth="28800" windowHeight="14415" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
   </bookViews>
   <sheets>
     <sheet name="位置导入错误模板" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>经度</t>
   </si>
   <si>
-    <t>维度</t>
-  </si>
-  <si>
     <t>排序</t>
   </si>
   <si>
@@ -162,6 +159,10 @@
   </si>
   <si>
     <t>位置编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纬度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -275,7 +276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -308,6 +309,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,12 +636,12 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30" style="12" customWidth="1"/>
     <col min="2" max="2" width="17.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
@@ -646,7 +653,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -659,7 +666,7 @@
     </row>
     <row r="2" spans="1:19" ht="192" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -671,11 +678,11 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
@@ -684,48 +691,48 @@
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="I3" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -804,55 +811,55 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
